--- a/测试基础/边界值_案例练习.xlsx
+++ b/测试基础/边界值_案例练习.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\软件测试\测试基础\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54CE037-D051-4EAF-A14D-6176800F5F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7310B432-3CA7-41B4-A6C0-575A5C893411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15840" yWindow="4320" windowWidth="22560" windowHeight="15150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1365" yWindow="2535" windowWidth="22365" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="验证标题长度合法性" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="QQ边界" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -444,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -458,6 +458,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -743,7 +755,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:P21"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1031,7 +1043,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1230,54 +1242,54 @@
       </c>
     </row>
     <row r="19" spans="5:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="10">
         <v>1234567</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="5:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="10">
         <v>123456789</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="8" t="s">
         <v>20</v>
       </c>
     </row>
